--- a/ExcelConfig/充值兑换比例.xlsx
+++ b/ExcelConfig/充值兑换比例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="1440" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="2280" yWindow="1440" windowWidth="20736" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -459,19 +459,19 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="16" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -504,22 +504,22 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H4:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.625" style="2" customWidth="1"/>
-    <col min="6" max="7" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="2"/>
+    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -536,7 +536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -553,7 +553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -573,7 +573,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -587,7 +587,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -601,7 +601,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -615,7 +615,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -629,7 +629,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>5</v>
       </c>
@@ -643,7 +643,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -653,7 +653,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:R2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>

--- a/ExcelConfig/充值兑换比例.xlsx
+++ b/ExcelConfig/充值兑换比例.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="1440" windowWidth="20736" windowHeight="11760"/>
+    <workbookView xWindow="2280" yWindow="1440" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,6 +78,26 @@
   </si>
   <si>
     <t>ChargInfoConfig.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小堆钻石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小袋钻石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大袋钻石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大箱钻石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小箱钻石</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -170,7 +190,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -212,7 +232,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -247,7 +267,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -458,20 +478,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.77734375" style="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -500,26 +520,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H4:H8"/>
+      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.77734375" style="2"/>
+    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -536,7 +556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -553,7 +573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -573,7 +593,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -586,8 +606,11 @@
       <c r="E4" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -600,8 +623,11 @@
       <c r="E5" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -614,8 +640,11 @@
       <c r="E6" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -628,8 +657,11 @@
       <c r="E7" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>5</v>
       </c>
@@ -642,8 +674,11 @@
       <c r="E8" s="2">
         <v>98</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="G8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
